--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,229 +52,280 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>see</t>
+    <t>one</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>one</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>paper</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>workers</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -632,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,31 +770,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
         <v>56</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.547945205479452</v>
+        <v>0.5513698630136986</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,31 +820,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8803418803418803</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2933333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,31 +870,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2209302325581395</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,195 +920,123 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="L6">
+        <v>106</v>
+      </c>
+      <c r="M6">
+        <v>106</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <v>0.8503937007874016</v>
-      </c>
-      <c r="L6">
-        <v>108</v>
-      </c>
-      <c r="M6">
-        <v>109</v>
-      </c>
-      <c r="N6">
-        <v>0.99</v>
-      </c>
-      <c r="O6">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.01641199773627617</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>405</v>
-      </c>
-      <c r="E7">
-        <v>0.93</v>
-      </c>
-      <c r="F7">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1738</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8375</v>
-      </c>
-      <c r="L7">
-        <v>67</v>
-      </c>
-      <c r="M7">
-        <v>69</v>
-      </c>
-      <c r="N7">
-        <v>0.97</v>
-      </c>
-      <c r="O7">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.0115606936416185</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>542</v>
-      </c>
-      <c r="E8">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2565</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8272727272727273</v>
-      </c>
-      <c r="L8">
-        <v>91</v>
-      </c>
-      <c r="M8">
-        <v>93</v>
-      </c>
-      <c r="N8">
-        <v>0.98</v>
-      </c>
-      <c r="O8">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.00748663101604278</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>417</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
-      <c r="F9">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2784</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.7452229299363057</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7301587301587301</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,99 +1048,99 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6732673267326733</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M11">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="N11">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6434782608695652</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L13">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6388888888888888</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,73 +1152,73 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6373626373626373</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6140350877192983</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.574468085106383</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1251,203 +1230,203 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5482758620689655</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5412844036697247</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5264550264550265</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L20">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="M20">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5223880597014925</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4680851063829787</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4659090909090909</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.423728813559322</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1459,203 +1438,203 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4081632653061225</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3263157894736842</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.323943661971831</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L28">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.2884615384615384</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>111</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.2816901408450704</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="N30">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.279126213592233</v>
+        <v>0.46875</v>
       </c>
       <c r="L31">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>297</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.2732919254658385</v>
+        <v>0.38</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.2692307692307692</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1667,21 +1646,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.2637362637362637</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1693,47 +1672,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.2547770700636943</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.25</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1745,21 +1724,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.2408759124087591</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1771,125 +1750,125 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.2402912621359223</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L38">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>313</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.2164948453608248</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M39">
         <v>22</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.2162162162162162</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.2042253521126761</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2040816326530612</v>
+        <v>0.284688995215311</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1901,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>117</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2016806722689076</v>
+        <v>0.2804878048780488</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1927,203 +1906,203 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.1937984496124031</v>
+        <v>0.2605042016806723</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.1893939393939394</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.1889140271493213</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="L46">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>717</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.1882352941176471</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="L47">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M47">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>276</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.1809523809523809</v>
+        <v>0.2379807692307692</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="N48">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>172</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1806853582554517</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="L49">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M49">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>263</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1796875</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1782608695652174</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2135,73 +2114,73 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1778618732261116</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L52">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1738</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1759656652360515</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>192</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1757575757575758</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2213,73 +2192,73 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1752577319587629</v>
+        <v>0.2130434782608696</v>
       </c>
       <c r="L55">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M55">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>400</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1739618406285073</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="L56">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="N56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>736</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1739130434782609</v>
+        <v>0.2067510548523207</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2291,99 +2270,99 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>95</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1684867394695788</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L58">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="M58">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>533</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1684782608695652</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>153</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1666666666666667</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1666666666666667</v>
+        <v>0.1977077363896848</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2395,47 +2374,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>115</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1663958401039974</v>
+        <v>0.1968680089485459</v>
       </c>
       <c r="L62">
-        <v>512</v>
+        <v>176</v>
       </c>
       <c r="M62">
-        <v>542</v>
+        <v>176</v>
       </c>
       <c r="N62">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>2565</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1610486891385768</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L63">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2444,140 +2423,140 @@
         <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>224</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1519434628975265</v>
+        <v>0.1953488372093023</v>
       </c>
       <c r="L64">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="N64">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>480</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1367323290845887</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="L65">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M65">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>745</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1335504885993485</v>
+        <v>0.1844444444444444</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="M66">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>266</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1304347826086956</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1245283018867925</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L68">
-        <v>396</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>417</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2784</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2585,25 +2564,25 @@
         <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1089023336214347</v>
+        <v>0.1796875</v>
       </c>
       <c r="L69">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1031</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2611,25 +2590,25 @@
         <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1026785714285714</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="L70">
         <v>23</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>201</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2637,13 +2616,13 @@
         <v>81</v>
       </c>
       <c r="K71">
-        <v>0.09251101321585903</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2655,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2663,25 +2642,25 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>0.08992805755395683</v>
+        <v>0.1728911783644559</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>537</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>538</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>253</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2689,25 +2668,25 @@
         <v>83</v>
       </c>
       <c r="K73">
-        <v>0.08695652173913043</v>
+        <v>0.1722846441947566</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>273</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2715,25 +2694,25 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <v>0.08077994428969359</v>
+        <v>0.1635802469135803</v>
       </c>
       <c r="L74">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>330</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2741,25 +2720,25 @@
         <v>85</v>
       </c>
       <c r="K75">
-        <v>0.06481481481481481</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L75">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>505</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2767,25 +2746,467 @@
         <v>86</v>
       </c>
       <c r="K76">
-        <v>0.05427974947807934</v>
+        <v>0.1557093425605536</v>
       </c>
       <c r="L76">
+        <v>135</v>
+      </c>
+      <c r="M76">
+        <v>135</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77">
+        <v>0.1521739130434783</v>
+      </c>
+      <c r="L77">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K78">
+        <v>0.145985401459854</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K79">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L79">
+        <v>81</v>
+      </c>
+      <c r="M79">
+        <v>81</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K80">
+        <v>0.1402439024390244</v>
+      </c>
+      <c r="L80">
+        <v>23</v>
+      </c>
+      <c r="M80">
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81">
+        <v>0.1385542168674699</v>
+      </c>
+      <c r="L81">
+        <v>23</v>
+      </c>
+      <c r="M81">
+        <v>23</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82">
+        <v>0.1345029239766082</v>
+      </c>
+      <c r="L82">
+        <v>23</v>
+      </c>
+      <c r="M82">
+        <v>24</v>
+      </c>
+      <c r="N82">
+        <v>0.96</v>
+      </c>
+      <c r="O82">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K83">
+        <v>0.123827392120075</v>
+      </c>
+      <c r="L83">
+        <v>396</v>
+      </c>
+      <c r="M83">
+        <v>399</v>
+      </c>
+      <c r="N83">
+        <v>0.99</v>
+      </c>
+      <c r="O83">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K84">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="L84">
+        <v>24</v>
+      </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>0.96</v>
+      </c>
+      <c r="O84">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85">
+        <v>0.1024978466838932</v>
+      </c>
+      <c r="L85">
+        <v>119</v>
+      </c>
+      <c r="M85">
+        <v>119</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K86">
+        <v>0.099644128113879</v>
+      </c>
+      <c r="L86">
+        <v>28</v>
+      </c>
+      <c r="M86">
+        <v>28</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K87">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="L87">
+        <v>22</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K88">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="L88">
         <v>52</v>
       </c>
-      <c r="M76">
-        <v>62</v>
-      </c>
-      <c r="N76">
-        <v>0.84</v>
-      </c>
-      <c r="O76">
-        <v>0.16</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>906</v>
+      <c r="M88">
+        <v>53</v>
+      </c>
+      <c r="N88">
+        <v>0.98</v>
+      </c>
+      <c r="O88">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89">
+        <v>0.09292035398230089</v>
+      </c>
+      <c r="L89">
+        <v>21</v>
+      </c>
+      <c r="M89">
+        <v>22</v>
+      </c>
+      <c r="N89">
+        <v>0.95</v>
+      </c>
+      <c r="O89">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="L90">
+        <v>26</v>
+      </c>
+      <c r="M90">
+        <v>26</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K91">
+        <v>0.07799442896935933</v>
+      </c>
+      <c r="L91">
+        <v>28</v>
+      </c>
+      <c r="M91">
+        <v>29</v>
+      </c>
+      <c r="N91">
+        <v>0.97</v>
+      </c>
+      <c r="O91">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K92">
+        <v>0.0734229576008273</v>
+      </c>
+      <c r="L92">
+        <v>71</v>
+      </c>
+      <c r="M92">
+        <v>72</v>
+      </c>
+      <c r="N92">
+        <v>0.99</v>
+      </c>
+      <c r="O92">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K93">
+        <v>0.0718954248366013</v>
+      </c>
+      <c r="L93">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>22</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
